--- a/REVER_DailyTracker_20200629.xlsx
+++ b/REVER_DailyTracker_20200629.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\MVS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B128E4-B317-4AAA-BE58-1B68F8BCB515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753923D-4FEE-4E98-A858-369F57CC690F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
   <si>
     <t>Task</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>3. Working in Progress of Communication board</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>Modules - Best Denki, All Denka, Stream</t>
   </si>
 </sst>
 </file>
@@ -270,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,6 +297,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -369,10 +391,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -409,9 +434,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{96BFF237-8778-4976-A3BC-497E5C26504D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -726,22 +760,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A117" workbookViewId="0">
       <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -762,7 +796,7 @@
       </c>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="D2" s="15" t="s">
         <v>10</v>
       </c>
@@ -772,8 +806,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -785,7 +819,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" s="4" customFormat="1">
       <c r="D5" s="18" t="s">
         <v>16</v>
       </c>
@@ -796,10 +830,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -813,9 +847,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1">
       <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
@@ -829,9 +863,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -845,8 +879,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="19" spans="2:7">
       <c r="C19" s="12" t="s">
         <v>1</v>
       </c>
@@ -863,19 +897,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7">
       <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7">
       <c r="B21" s="9"/>
       <c r="C21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="36" customHeight="1">
       <c r="B22" s="10"/>
       <c r="C22" t="s">
         <v>5</v>
@@ -893,13 +927,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:7">
       <c r="B23" s="11"/>
       <c r="C23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="30">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -913,7 +947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="30">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -927,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="45">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -935,7 +969,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:7" ht="45">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -943,12 +977,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:7">
       <c r="G38" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:7">
       <c r="D40" t="s">
         <v>27</v>
       </c>
@@ -956,7 +990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:7" ht="30">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -967,7 +1001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:7" ht="30">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -978,7 +1012,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:7">
       <c r="D50" t="s">
         <v>30</v>
       </c>
@@ -989,12 +1023,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:7">
       <c r="G51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:7" ht="105">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1039,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:7">
       <c r="D57" t="s">
         <v>30</v>
       </c>
@@ -1016,12 +1050,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:7">
       <c r="G58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:7" ht="75">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1029,7 +1063,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:7" ht="60">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:7" ht="60">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1045,7 +1079,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:7">
       <c r="D70" t="s">
         <v>30</v>
       </c>
@@ -1053,12 +1087,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:7" ht="45">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:7">
       <c r="D73" t="s">
         <v>44</v>
       </c>
@@ -1066,7 +1100,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:7">
       <c r="D76" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1108,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:7" ht="45">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1082,7 +1116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:7">
       <c r="D83" t="s">
         <v>30</v>
       </c>
@@ -1090,12 +1124,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:7" ht="30">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:7" ht="60">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1103,7 +1137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:7">
       <c r="D93" t="s">
         <v>51</v>
       </c>
@@ -1111,7 +1145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:7" ht="45">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1119,7 +1153,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:7" ht="60">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1127,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:7">
       <c r="D104" t="s">
         <v>30</v>
       </c>
@@ -1135,12 +1169,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:7">
       <c r="G105" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:7" ht="30">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1148,7 +1182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:7">
       <c r="D112" t="s">
         <v>30</v>
       </c>
@@ -1156,7 +1190,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:7" ht="45">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1164,7 +1198,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:7">
       <c r="D120" t="s">
         <v>30</v>
       </c>
@@ -1172,7 +1206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:7" ht="30">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1180,7 +1214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:7">
       <c r="G124" t="s">
         <v>62</v>
       </c>
@@ -1200,18 +1234,18 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1234,7 +1268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1243,7 +1277,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1252,46 +1286,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1308,22 +1342,22 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1346,16 +1380,28 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44008</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="25">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1364,46 +1410,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1424,18 +1470,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1458,7 +1504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1467,7 +1513,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1476,46 +1522,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1536,18 +1582,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1570,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1579,7 +1625,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1588,46 +1634,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1648,18 +1694,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1682,7 +1728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1703,7 +1749,7 @@
       </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1712,46 +1758,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1772,18 +1818,18 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1806,7 +1852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1815,7 +1861,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1824,46 +1870,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1884,18 +1930,18 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1918,7 +1964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -1927,7 +1973,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1936,46 +1982,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -1996,18 +2042,18 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2039,7 +2085,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2048,46 +2094,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>
@@ -2108,18 +2154,18 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="44.77734375" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2142,7 +2188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
       <c r="C2" s="1"/>
@@ -2151,7 +2197,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2160,46 +2206,46 @@
       <c r="F3" s="13"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:3" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="4" customFormat="1"/>
+    <row r="5" spans="1:7" s="4" customFormat="1"/>
+    <row r="6" spans="1:7" s="4" customFormat="1"/>
+    <row r="7" spans="1:7" s="4" customFormat="1"/>
+    <row r="8" spans="1:7" s="4" customFormat="1"/>
+    <row r="9" spans="1:7" s="4" customFormat="1"/>
+    <row r="10" spans="1:7" s="4" customFormat="1"/>
+    <row r="11" spans="1:7" s="4" customFormat="1"/>
+    <row r="12" spans="1:7" s="4" customFormat="1"/>
+    <row r="13" spans="1:7" s="4" customFormat="1"/>
+    <row r="14" spans="1:7" s="4" customFormat="1"/>
+    <row r="15" spans="1:7" s="4" customFormat="1"/>
+    <row r="16" spans="1:7" s="4" customFormat="1"/>
+    <row r="17" spans="2:3" s="4" customFormat="1"/>
+    <row r="18" spans="2:3" s="4" customFormat="1"/>
+    <row r="19" spans="2:3" s="4" customFormat="1"/>
+    <row r="22" spans="2:3">
       <c r="C22" s="12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3">
       <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3">
       <c r="B24" s="9"/>
       <c r="C24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:3">
       <c r="B25" s="10"/>
       <c r="C25" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3">
       <c r="B26" s="11"/>
       <c r="C26" t="s">
         <v>11</v>

--- a/REVER_DailyTracker_20200629.xlsx
+++ b/REVER_DailyTracker_20200629.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Document\WBS\DailyTracker\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E753923D-4FEE-4E98-A858-369F57CC690F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{BDBCA639-774E-4870-AA16-72178DF9137C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -24,9 +18,9 @@
     <sheet name="Rahman" sheetId="14" r:id="rId9"/>
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
   <si>
     <t>Task</t>
   </si>
@@ -268,11 +262,17 @@
   <si>
     <t>Modules - Best Denki, All Denka, Stream</t>
   </si>
+  <si>
+    <t>Homac</t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -445,7 +445,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{96BFF237-8778-4976-A3BC-497E5C26504D}"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -503,7 +503,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -555,7 +555,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -749,14 +749,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5FA210-E74C-4956-984B-F79AD1DC1D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -1226,7 +1226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D97F208-7046-4CD3-9A69-1B907A35455F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1338,12 +1338,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A209DB9-CDA9-4C50-85C1-A0ADA7185189}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1462,12 +1462,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B046864B-E8B4-4B7E-A91C-A0C80AD7F78D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1505,21 +1505,45 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22">
+        <v>44011</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="13"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="22">
+        <v>44011</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="1">
+        <v>75</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>3</v>
+      </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1"/>
@@ -1574,7 +1598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C523E988-B9D6-4503-8511-E851FE3ED345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1686,7 +1710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32E0A3B-4CCA-47FE-89FF-779CF7651DEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1810,7 +1834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E19C8D-58A2-48BE-81ED-4B005621A3AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1922,7 +1946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5621F7FF-E06F-434B-89A6-3866EAA4F4E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2034,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED552E3A-902C-4700-B21A-33FAAF526D17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2146,7 +2170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629DA847-E656-4D9F-9186-EF9F1F645789}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>

--- a/REVER_DailyTracker_20200629.xlsx
+++ b/REVER_DailyTracker_20200629.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mamatha\DailyTracker\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076FF4ED-2244-414F-A84E-96C437810534}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balraj" sheetId="1" r:id="rId1"/>
@@ -19,22 +25,16 @@
     <sheet name="Mathes" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>Task</t>
   </si>
@@ -268,11 +268,17 @@
   <si>
     <t>BIC</t>
   </si>
+  <si>
+    <t>QMVAR-PArtsIO</t>
+  </si>
+  <si>
+    <t>PartsIO correction</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-14009]yyyy\-mm\-dd;@"/>
   </numFmts>
@@ -445,7 +451,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -749,14 +755,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G124"/>
   <sheetViews>
@@ -764,15 +770,15 @@
       <selection activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -807,7 +813,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="42" customHeight="1"/>
-    <row r="4" spans="1:7" s="4" customFormat="1" ht="60">
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="43.2">
       <c r="D4" s="18" t="s">
         <v>16</v>
       </c>
@@ -833,7 +839,7 @@
     <row r="6" spans="1:7" s="4" customFormat="1"/>
     <row r="7" spans="1:7" s="4" customFormat="1"/>
     <row r="8" spans="1:7" s="4" customFormat="1"/>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D9" s="18" t="s">
         <v>16</v>
       </c>
@@ -865,7 +871,7 @@
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1"/>
     <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="45">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="28.8">
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
@@ -933,7 +939,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30">
+    <row r="25" spans="2:7" ht="28.8">
       <c r="D25" s="4" t="s">
         <v>20</v>
       </c>
@@ -947,7 +953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30">
+    <row r="28" spans="2:7" ht="28.8">
       <c r="D28" s="4" t="s">
         <v>20</v>
       </c>
@@ -961,7 +967,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45">
+    <row r="32" spans="2:7" ht="43.2">
       <c r="D32" s="4" t="s">
         <v>20</v>
       </c>
@@ -969,7 +975,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="4:7" ht="45">
+    <row r="36" spans="4:7" ht="28.8">
       <c r="D36" t="s">
         <v>27</v>
       </c>
@@ -990,7 +996,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="4:7" ht="30">
+    <row r="44" spans="4:7" ht="28.8">
       <c r="D44" t="s">
         <v>30</v>
       </c>
@@ -1001,7 +1007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="4:7" ht="30">
+    <row r="47" spans="4:7" ht="28.8">
       <c r="D47" t="s">
         <v>30</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="4:7" ht="105">
+    <row r="54" spans="4:7" ht="72">
       <c r="D54" t="s">
         <v>30</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="4:7" ht="75">
+    <row r="60" spans="4:7" ht="72">
       <c r="D60" t="s">
         <v>30</v>
       </c>
@@ -1063,7 +1069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="64" spans="4:7" ht="60">
+    <row r="64" spans="4:7" ht="57.6">
       <c r="D64" t="s">
         <v>30</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="4:7" ht="60">
+    <row r="67" spans="4:7" ht="43.2">
       <c r="D67" t="s">
         <v>30</v>
       </c>
@@ -1087,7 +1093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="4:7" ht="45">
+    <row r="71" spans="4:7" ht="28.8">
       <c r="G71" s="20" t="s">
         <v>43</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="4:7" ht="45">
+    <row r="79" spans="4:7" ht="28.8">
       <c r="D79" t="s">
         <v>30</v>
       </c>
@@ -1124,12 +1130,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="84" spans="4:7" ht="30">
+    <row r="84" spans="4:7" ht="28.8">
       <c r="G84" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="88" spans="4:7" ht="60">
+    <row r="88" spans="4:7" ht="57.6">
       <c r="D88" t="s">
         <v>30</v>
       </c>
@@ -1145,7 +1151,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="4:7" ht="45">
+    <row r="97" spans="4:7" ht="43.2">
       <c r="D97" t="s">
         <v>30</v>
       </c>
@@ -1153,7 +1159,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="100" spans="4:7" ht="60">
+    <row r="100" spans="4:7" ht="43.2">
       <c r="D100" t="s">
         <v>30</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="108" spans="4:7" ht="30">
+    <row r="108" spans="4:7" ht="28.8">
       <c r="D108" t="s">
         <v>30</v>
       </c>
@@ -1190,7 +1196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="4:7" ht="45">
+    <row r="116" spans="4:7" ht="28.8">
       <c r="D116" t="s">
         <v>30</v>
       </c>
@@ -1206,7 +1212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="123" spans="4:7" ht="30">
+    <row r="123" spans="4:7" ht="28.8">
       <c r="D123" t="s">
         <v>30</v>
       </c>
@@ -1226,7 +1232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1234,15 +1240,15 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1338,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1346,15 +1352,15 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1380,7 +1386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15.6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1462,23 +1468,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1598,23 +1604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1643,10 +1649,18 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="3"/>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
@@ -1710,7 +1724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1718,15 +1732,15 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1834,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1842,15 +1856,15 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1946,7 +1960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -1954,15 +1968,15 @@
       <selection activeCell="F14" sqref="E14:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2058,7 +2072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2066,15 +2080,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2170,7 +2184,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -2178,15 +2192,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="6.140625" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="7" width="48.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
